--- a/www/ig/nos/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from TRE_R210-ActeSpe" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R210-ActeSpe 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="2136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="2162">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.4</t>
+    <t>urn:oid:1.2.250.1.213.3.4.4</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -742,7 +741,7 @@
     <t>0182</t>
   </si>
   <si>
-    <t>Education thérapeutique - école de l'asthme</t>
+    <t>Education thérapeutique labellisée du patient asthmatique (école de l'asthme)</t>
   </si>
   <si>
     <t>0183</t>
@@ -1744,7 +1743,7 @@
     <t>0501</t>
   </si>
   <si>
-    <t>Vaccination internationale et conseil aux voyageurs (fièvre jaune, encéphalite,...)</t>
+    <t>Vaccinations internationales et conseils aux voyageurs (fièvre jaune, encéphalite…)</t>
   </si>
   <si>
     <t>0503</t>
@@ -6229,6 +6228,270 @@
     <t>Prise en charge en Appartements de Coordination Thérapeutique (ACT) en appartements en diffus</t>
   </si>
   <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>Accouchement à domicile</t>
+  </si>
+  <si>
+    <t>1357</t>
+  </si>
+  <si>
+    <t>Accouchement en maison de naissance</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>Accouchement en plateau technique</t>
+  </si>
+  <si>
+    <t>1359</t>
+  </si>
+  <si>
+    <t>Bilan échographique pré fistule artérioveineuse (FAV) et suivi des abords vasculaires</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>Diagnostic et prise en charge médicale de l'insuffisance veineuse pelvienne</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>Diagnostic et prise en charge de l'insuffisance veineuse des membres inférieurs (dont varices)</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>Echo-doppler du greffon rénal</t>
+  </si>
+  <si>
+    <t>1363</t>
+  </si>
+  <si>
+    <t>Echo-doppler des vaisseaux viscéraux</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>Pharmaco-écho-doppler pénien</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>Prise en charge et coordination de plaies et cicatrisations complexes</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>Evaluation et prise en charge d'analgésie intrathécale</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>Thérapie individuelle ou de groupe dans le suivi de deuil</t>
+  </si>
+  <si>
+    <t>1368</t>
+  </si>
+  <si>
+    <t>Centre de recours pour chirurgie oncologique complexe</t>
+  </si>
+  <si>
+    <t>1369</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique du foie</t>
+  </si>
+  <si>
+    <t>1370</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique de l'estomac</t>
+  </si>
+  <si>
+    <t>1371</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique du rectum</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique des cancers thoraciques envahissants le rachis</t>
+  </si>
+  <si>
+    <t>1373</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique du coeur</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique de la paroi thoracique</t>
+  </si>
+  <si>
+    <t>1375</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique des cancers urologiques avec atteinte vasculaire</t>
+  </si>
+  <si>
+    <t>1376</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique des cancers urologiques avec atteinte lombo-aortique</t>
+  </si>
+  <si>
+    <t>1377</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique des cancers gynécologiques avec atteinte péritonéale</t>
+  </si>
+  <si>
+    <t>1378</t>
+  </si>
+  <si>
+    <t>Chirurgie oncologique de l'ovaire</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>Prise en charge de la douleur liée à l'endométriose</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'infertilité liée à l'endométriose</t>
+  </si>
+  <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>Diagnostic de l'endométriose complexe</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>Filière endométriose - niveau 1</t>
+  </si>
+  <si>
+    <t>1383</t>
+  </si>
+  <si>
+    <t>Filière endométriose - niveau 2</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>Filière endométriose - niveau 3</t>
+  </si>
+  <si>
+    <t>1385</t>
+  </si>
+  <si>
+    <t>Evaluation psychiatrique pré-conceptionnelle</t>
+  </si>
+  <si>
+    <t>1386</t>
+  </si>
+  <si>
+    <t>Suivi psychiatrique de la femme enceinte</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>Conseil en anti infectieux</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>Gestion des complications de l'infection par le VIH</t>
+  </si>
+  <si>
+    <t>1389</t>
+  </si>
+  <si>
+    <t>Initiation et suivi thérapeutique des hépatites virales</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>Initiation, réévaluation et modification des anti rétroviraux</t>
+  </si>
+  <si>
+    <t>1391</t>
+  </si>
+  <si>
+    <t>Maladies vectorielles à tique (Lyme…)</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>Prise en charge clinique des parasitoses</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>Prise en charge des Infections chez les Immunodéprimés (ID)</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>Prise en charge diagnostique et thérapeutique des infections post-opératoires ou sur prothèses et/ou dispositifs implantables</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>Bilan diagnostic psychiatrique</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'anorexie précoce prépubère</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'hyperphagie boulimique</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>Admission directe non programmée - personnes âgées (PA)</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>Unité de réanimation pédiatrique de recours</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -6236,192 +6499,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R210-ActeSpecifique/FHIR/TRE-R210-ActeSpecifique</t>
-  </si>
-  <si>
-    <t>1356</t>
-  </si>
-  <si>
-    <t>Accouchement à domicile</t>
-  </si>
-  <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>Accouchement en maison de naissance</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>Accouchement en plateau technique</t>
-  </si>
-  <si>
-    <t>1359</t>
-  </si>
-  <si>
-    <t>Bilan échographique pré fistule artérioveineuse (FAV) et suivi des abords vasculaires</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>Diagnostic et prise en charge médicale de l'insuffisance veineuse pelvienne</t>
-  </si>
-  <si>
-    <t>1361</t>
-  </si>
-  <si>
-    <t>Diagnostic et prise en charge de l'insuffisance veineuse des membres inférieurs (dont varices)</t>
-  </si>
-  <si>
-    <t>1362</t>
-  </si>
-  <si>
-    <t>Echo-doppler du greffon rénal</t>
-  </si>
-  <si>
-    <t>1363</t>
-  </si>
-  <si>
-    <t>Echo-doppler des vaisseaux viscéraux</t>
-  </si>
-  <si>
-    <t>1364</t>
-  </si>
-  <si>
-    <t>Pharmaco-écho-doppler pénien</t>
-  </si>
-  <si>
-    <t>1365</t>
-  </si>
-  <si>
-    <t>Prise en charge et coordination de plaies et cicatrisations complexes</t>
-  </si>
-  <si>
-    <t>1366</t>
-  </si>
-  <si>
-    <t>Evaluation et prise en charge d'analgésie intrathécale</t>
-  </si>
-  <si>
-    <t>1367</t>
-  </si>
-  <si>
-    <t>Thérapie individuelle ou de groupe dans le suivi de deuil</t>
-  </si>
-  <si>
-    <t>1368</t>
-  </si>
-  <si>
-    <t>Centre de recours pour chirurgie oncologique complexe</t>
-  </si>
-  <si>
-    <t>1369</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique du foie</t>
-  </si>
-  <si>
-    <t>1370</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique de l'estomac</t>
-  </si>
-  <si>
-    <t>1371</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique du rectum</t>
-  </si>
-  <si>
-    <t>1372</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique des cancers thoraciques envahissants le rachis</t>
-  </si>
-  <si>
-    <t>1373</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique du coeur</t>
-  </si>
-  <si>
-    <t>1374</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique de la paroi thoracique</t>
-  </si>
-  <si>
-    <t>1375</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique des cancers urologiques avec atteinte vasculaire</t>
-  </si>
-  <si>
-    <t>1376</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique des cancers urologiques avec atteinte lombo-aortique</t>
-  </si>
-  <si>
-    <t>1377</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique des cancers gynécologiques avec atteinte péritonéale</t>
-  </si>
-  <si>
-    <t>1378</t>
-  </si>
-  <si>
-    <t>Chirurgie oncologique de l'ovaire</t>
-  </si>
-  <si>
-    <t>1379</t>
-  </si>
-  <si>
-    <t>Prise en charge de la douleur liée à l'endométriose</t>
-  </si>
-  <si>
-    <t>1380</t>
-  </si>
-  <si>
-    <t>Prise en charge de l'infertilité liée à l'endométriose</t>
-  </si>
-  <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>Diagnostic complexe de l'endométriose</t>
-  </si>
-  <si>
-    <t>1382</t>
-  </si>
-  <si>
-    <t>Filière endométriose - niveau 1</t>
-  </si>
-  <si>
-    <t>1383</t>
-  </si>
-  <si>
-    <t>Filière endométriose - niveau 2</t>
-  </si>
-  <si>
-    <t>1384</t>
-  </si>
-  <si>
-    <t>Filière endométriose - niveau 3</t>
-  </si>
-  <si>
-    <t>1385</t>
-  </si>
-  <si>
-    <t>Evaluation psychiatrique pré-conceptionnelle</t>
-  </si>
-  <si>
-    <t>1386</t>
-  </si>
-  <si>
-    <t>Suivi psychiatrique de la femme enceinte</t>
   </si>
 </sst>
 </file>
@@ -6684,7 +6761,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1025"/>
+  <dimension ref="A1:B1069"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14883,304 +14960,367 @@
         <v>2071</v>
       </c>
       <c r="B1024" t="s" s="2">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="s" s="2">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B1025" t="s" s="2">
-        <v>2073</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
         <v>2074</v>
       </c>
-      <c r="B2" t="s" s="2">
+    </row>
+    <row r="1026">
+      <c r="A1026" t="s" s="2">
         <v>2075</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="B1026" t="s" s="2">
         <v>2076</v>
       </c>
-      <c r="B3" t="s" s="2">
+    </row>
+    <row r="1027">
+      <c r="A1027" t="s" s="2">
         <v>2077</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="B1027" t="s" s="2">
         <v>2078</v>
       </c>
-      <c r="B4" t="s" s="2">
+    </row>
+    <row r="1028">
+      <c r="A1028" t="s" s="2">
         <v>2079</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="B1028" t="s" s="2">
         <v>2080</v>
       </c>
-      <c r="B5" t="s" s="2">
+    </row>
+    <row r="1029">
+      <c r="A1029" t="s" s="2">
         <v>2081</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="B1029" t="s" s="2">
         <v>2082</v>
       </c>
-      <c r="B6" t="s" s="2">
+    </row>
+    <row r="1030">
+      <c r="A1030" t="s" s="2">
         <v>2083</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="B1030" t="s" s="2">
         <v>2084</v>
       </c>
-      <c r="B7" t="s" s="2">
+    </row>
+    <row r="1031">
+      <c r="A1031" t="s" s="2">
         <v>2085</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="B1031" t="s" s="2">
         <v>2086</v>
       </c>
-      <c r="B8" t="s" s="2">
+    </row>
+    <row r="1032">
+      <c r="A1032" t="s" s="2">
         <v>2087</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="B1032" t="s" s="2">
         <v>2088</v>
       </c>
-      <c r="B9" t="s" s="2">
+    </row>
+    <row r="1033">
+      <c r="A1033" t="s" s="2">
         <v>2089</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="B1033" t="s" s="2">
         <v>2090</v>
       </c>
-      <c r="B10" t="s" s="2">
+    </row>
+    <row r="1034">
+      <c r="A1034" t="s" s="2">
         <v>2091</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="B1034" t="s" s="2">
         <v>2092</v>
       </c>
-      <c r="B11" t="s" s="2">
+    </row>
+    <row r="1035">
+      <c r="A1035" t="s" s="2">
         <v>2093</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="B1035" t="s" s="2">
         <v>2094</v>
       </c>
-      <c r="B12" t="s" s="2">
+    </row>
+    <row r="1036">
+      <c r="A1036" t="s" s="2">
         <v>2095</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="B1036" t="s" s="2">
         <v>2096</v>
       </c>
-      <c r="B13" t="s" s="2">
+    </row>
+    <row r="1037">
+      <c r="A1037" t="s" s="2">
         <v>2097</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="B1037" t="s" s="2">
         <v>2098</v>
       </c>
-      <c r="B14" t="s" s="2">
+    </row>
+    <row r="1038">
+      <c r="A1038" t="s" s="2">
         <v>2099</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="B1038" t="s" s="2">
         <v>2100</v>
       </c>
-      <c r="B15" t="s" s="2">
+    </row>
+    <row r="1039">
+      <c r="A1039" t="s" s="2">
         <v>2101</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="B1039" t="s" s="2">
         <v>2102</v>
       </c>
-      <c r="B16" t="s" s="2">
+    </row>
+    <row r="1040">
+      <c r="A1040" t="s" s="2">
         <v>2103</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="B1040" t="s" s="2">
         <v>2104</v>
       </c>
-      <c r="B17" t="s" s="2">
+    </row>
+    <row r="1041">
+      <c r="A1041" t="s" s="2">
         <v>2105</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="B1041" t="s" s="2">
         <v>2106</v>
       </c>
-      <c r="B18" t="s" s="2">
+    </row>
+    <row r="1042">
+      <c r="A1042" t="s" s="2">
         <v>2107</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="B1042" t="s" s="2">
         <v>2108</v>
       </c>
-      <c r="B19" t="s" s="2">
+    </row>
+    <row r="1043">
+      <c r="A1043" t="s" s="2">
         <v>2109</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="B1043" t="s" s="2">
         <v>2110</v>
       </c>
-      <c r="B20" t="s" s="2">
+    </row>
+    <row r="1044">
+      <c r="A1044" t="s" s="2">
         <v>2111</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="B1044" t="s" s="2">
         <v>2112</v>
       </c>
-      <c r="B21" t="s" s="2">
+    </row>
+    <row r="1045">
+      <c r="A1045" t="s" s="2">
         <v>2113</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="B1045" t="s" s="2">
         <v>2114</v>
       </c>
-      <c r="B22" t="s" s="2">
+    </row>
+    <row r="1046">
+      <c r="A1046" t="s" s="2">
         <v>2115</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="B1046" t="s" s="2">
         <v>2116</v>
       </c>
-      <c r="B23" t="s" s="2">
+    </row>
+    <row r="1047">
+      <c r="A1047" t="s" s="2">
         <v>2117</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="B1047" t="s" s="2">
         <v>2118</v>
       </c>
-      <c r="B24" t="s" s="2">
+    </row>
+    <row r="1048">
+      <c r="A1048" t="s" s="2">
         <v>2119</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="B1048" t="s" s="2">
         <v>2120</v>
       </c>
-      <c r="B25" t="s" s="2">
+    </row>
+    <row r="1049">
+      <c r="A1049" t="s" s="2">
         <v>2121</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="B1049" t="s" s="2">
         <v>2122</v>
       </c>
-      <c r="B26" t="s" s="2">
+    </row>
+    <row r="1050">
+      <c r="A1050" t="s" s="2">
         <v>2123</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="B1050" t="s" s="2">
         <v>2124</v>
       </c>
-      <c r="B27" t="s" s="2">
+    </row>
+    <row r="1051">
+      <c r="A1051" t="s" s="2">
         <v>2125</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="B1051" t="s" s="2">
         <v>2126</v>
       </c>
-      <c r="B28" t="s" s="2">
+    </row>
+    <row r="1052">
+      <c r="A1052" t="s" s="2">
         <v>2127</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="B1052" t="s" s="2">
         <v>2128</v>
       </c>
-      <c r="B29" t="s" s="2">
+    </row>
+    <row r="1053">
+      <c r="A1053" t="s" s="2">
         <v>2129</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="B1053" t="s" s="2">
         <v>2130</v>
       </c>
-      <c r="B30" t="s" s="2">
+    </row>
+    <row r="1054">
+      <c r="A1054" t="s" s="2">
         <v>2131</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="B1054" t="s" s="2">
         <v>2132</v>
       </c>
-      <c r="B31" t="s" s="2">
+    </row>
+    <row r="1055">
+      <c r="A1055" t="s" s="2">
         <v>2133</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="B1055" t="s" s="2">
         <v>2134</v>
       </c>
-      <c r="B32" t="s" s="2">
+    </row>
+    <row r="1056">
+      <c r="A1056" t="s" s="2">
         <v>2135</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>2071</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>2072</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>2073</v>
+      <c r="B1056" t="s" s="2">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="s" s="2">
+        <v>2137</v>
+      </c>
+      <c r="B1057" t="s" s="2">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="s" s="2">
+        <v>2139</v>
+      </c>
+      <c r="B1058" t="s" s="2">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="s" s="2">
+        <v>2141</v>
+      </c>
+      <c r="B1059" t="s" s="2">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="s" s="2">
+        <v>2143</v>
+      </c>
+      <c r="B1060" t="s" s="2">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="s" s="2">
+        <v>2145</v>
+      </c>
+      <c r="B1061" t="s" s="2">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="s" s="2">
+        <v>2147</v>
+      </c>
+      <c r="B1062" t="s" s="2">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="s" s="2">
+        <v>2149</v>
+      </c>
+      <c r="B1063" t="s" s="2">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="s" s="2">
+        <v>2151</v>
+      </c>
+      <c r="B1064" t="s" s="2">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="s" s="2">
+        <v>2153</v>
+      </c>
+      <c r="B1065" t="s" s="2">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="s" s="2">
+        <v>2155</v>
+      </c>
+      <c r="B1066" t="s" s="2">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="s" s="2">
+        <v>2157</v>
+      </c>
+      <c r="B1067" t="s" s="2">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="s" s="2">
+        <v>2159</v>
+      </c>
+      <c r="B1068" t="s" s="2">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="s" s="2">
+        <v>2160</v>
+      </c>
+      <c r="B1069" t="s" s="2">
+        <v>2161</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J16-ActeSpecifique-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="2304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="2314">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1860,12 +1860,6 @@
     <t>Bypass gastrique</t>
   </si>
   <si>
-    <t>0535</t>
-  </si>
-  <si>
-    <t>Prise en charge de l'obésité modérée</t>
-  </si>
-  <si>
     <t>0536</t>
   </si>
   <si>
@@ -2850,12 +2844,6 @@
     <t>Actions de prévention tertiaire (pour éviter l'aggravation ou la chronicisation d'un problème de santé)</t>
   </si>
   <si>
-    <t>0745</t>
-  </si>
-  <si>
-    <t>Réadaptation des séquelles de brûlures</t>
-  </si>
-  <si>
     <t>0746</t>
   </si>
   <si>
@@ -4734,12 +4722,6 @@
     <t>Réadaptation des affections malformatives du système musculo-squelettique</t>
   </si>
   <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>Réadaptation des affections médullaires</t>
-  </si>
-  <si>
     <t>1107</t>
   </si>
   <si>
@@ -6717,7 +6699,7 @@
     <t>1454</t>
   </si>
   <si>
-    <t>Evaluation et suivi standardisé clinique et paraclinique des commotions cérébrales</t>
+    <t>Evaluation et suivi standardisé clinique et paraclinique des commotions cérébrales (Traumatisme Crânien Léger - TCL)</t>
   </si>
   <si>
     <t>1455</t>
@@ -6729,7 +6711,7 @@
     <t>1456</t>
   </si>
   <si>
-    <t>Soins et surveillance de remplissage de pompe à morphine</t>
+    <t>Soins et surveillance de remplissage de pompe à antalgique (dont morphine)</t>
   </si>
   <si>
     <t>1457</t>
@@ -6916,6 +6898,54 @@
   </si>
   <si>
     <t>Télésurveillance médicale en oncologie</t>
+  </si>
+  <si>
+    <t>1488</t>
+  </si>
+  <si>
+    <t>Electrostimulation fonctionnelle urologique</t>
+  </si>
+  <si>
+    <t>1489</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 1 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 2 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 3 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 3 (Centre Spécialisé Obésité)</t>
+  </si>
+  <si>
+    <t>1493</t>
+  </si>
+  <si>
+    <t>Consultation dans des locaux dédiés - personnes en situation de handicap (PH)</t>
+  </si>
+  <si>
+    <t>1494</t>
+  </si>
+  <si>
+    <t>Consultation sans locaux dédiés - personnes en situation de handicap (PH)</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>HandiBloc</t>
   </si>
   <si>
     <t/>
@@ -7187,7 +7217,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1140"/>
+  <dimension ref="A1:B1145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16306,15 +16336,55 @@
         <v>2301</v>
       </c>
       <c r="B1139" t="s" s="2">
-        <v>2301</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="s" s="2">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="B1140" t="s" s="2">
-        <v>2303</v>
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="s" s="2">
+        <v>2305</v>
+      </c>
+      <c r="B1141" t="s" s="2">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="s" s="2">
+        <v>2307</v>
+      </c>
+      <c r="B1142" t="s" s="2">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="s" s="2">
+        <v>2309</v>
+      </c>
+      <c r="B1143" t="s" s="2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="s" s="2">
+        <v>2311</v>
+      </c>
+      <c r="B1144" t="s" s="2">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="s" s="2">
+        <v>2312</v>
+      </c>
+      <c r="B1145" t="s" s="2">
+        <v>2313</v>
       </c>
     </row>
   </sheetData>
